--- a/Motores/Modelado/Calculos.xlsx
+++ b/Motores/Modelado/Calculos.xlsx
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">v/b</t>
+  </si>
   <si>
     <t xml:space="preserve">M2</t>
   </si>
@@ -64,6 +67,18 @@
   </si>
   <si>
     <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r/n</t>
   </si>
   <si>
     <t xml:space="preserve">M1</t>
@@ -260,7 +275,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -369,11 +384,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94704617"/>
-        <c:axId val="53419375"/>
+        <c:axId val="57032488"/>
+        <c:axId val="78009749"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94704617"/>
+        <c:axId val="57032488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,12 +424,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53419375"/>
+        <c:crossAx val="78009749"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53419375"/>
+        <c:axId val="78009749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,7 +465,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94704617"/>
+        <c:crossAx val="57032488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -477,7 +492,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -532,7 +547,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$D$26</c:f>
+              <c:f>Sheet1!$D$24:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -556,7 +571,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$26</c:f>
+              <c:f>Sheet1!$C$24:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -580,11 +595,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59219304"/>
-        <c:axId val="76567582"/>
+        <c:axId val="33851870"/>
+        <c:axId val="24978126"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59219304"/>
+        <c:axId val="33851870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,12 +635,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76567582"/>
+        <c:crossAx val="24978126"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76567582"/>
+        <c:axId val="24978126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +676,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59219304"/>
+        <c:crossAx val="33851870"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -693,7 +708,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>320400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
@@ -709,8 +724,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5044320" y="76320"/>
-        <a:ext cx="2888280" cy="2041560"/>
+        <a:off x="5269320" y="76320"/>
+        <a:ext cx="2840400" cy="2041560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -723,15 +738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:colOff>312840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>159480</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -739,8 +754,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5036760" y="3840480"/>
-        <a:ext cx="3390120" cy="2205360"/>
+        <a:off x="5261760" y="4191120"/>
+        <a:ext cx="3332880" cy="2205000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -758,36 +773,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:Q37"/>
+  <dimension ref="B1:Q43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="16" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,7 +818,7 @@
         <v>0.58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
         <f aca="false" t="array" ref="F3:G6">LINEST(C3:C8,D3:D8,0,1)</f>
@@ -808,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>1.93082E-005</v>
@@ -874,15 +894,15 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,7 +915,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -903,7 +923,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>26</v>
@@ -912,7 +932,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">D13/D12</f>
@@ -922,7 +942,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2.7227</v>
@@ -931,7 +951,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">C11-F3*D11</f>
@@ -941,7 +961,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">D16/D15</f>
@@ -950,171 +970,231 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="4"/>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1.93082E-005</v>
+      </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">((1/D21)-D17^2)/F3</f>
+        <v>0.186442462912326</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>3.478</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+      <c r="D23" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>0.35</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <f aca="false" t="array" ref="F22:G25">LINEST(C22:C26,D22:D26,0,1)</f>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false" t="array" ref="F24:G27">LINEST(C24:C28,D24:D28,0,1)</f>
         <v>1.11337030811197</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+      <c r="H24" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F25" s="4" t="n">
         <v>0.0250875554057343</v>
       </c>
-      <c r="G23" s="0" t="str">
+      <c r="G25" s="0" t="str">
         <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.997973174880593</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0.0790743668540678</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1969.52991222528</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.997973174880593</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.0790743668540678</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1969.52991222528</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>2.03</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>0.17</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <f aca="false">D33/D32</f>
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>2.827</v>
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="4" t="n">
-        <f aca="false">ABS(C30-F22*D30)</f>
-        <v>0.810727047620965</v>
+        <f aca="false">D35/D34</f>
+        <v>27</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>2.827</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <f aca="false">D36/D35</f>
+      <c r="D38" s="4" t="n">
+        <f aca="false">ABS(C32-F24*D32)</f>
+        <v>0.810727047620965</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <f aca="false">D38/D37</f>
         <v>0.286779995621141</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>1.93082E-005</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <f aca="false">((1/D43)-D39^2)/F25</f>
+        <v>8.18249506215046</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>3.478</v>
       </c>
     </row>
   </sheetData>
@@ -1137,12 +1217,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C42:D43 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1163,12 +1243,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C42:D43 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Motores/Modelado/Calculos.xlsx
+++ b/Motores/Modelado/Calculos.xlsx
@@ -275,7 +275,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -384,11 +384,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57032488"/>
-        <c:axId val="78009749"/>
+        <c:axId val="92129716"/>
+        <c:axId val="98611368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57032488"/>
+        <c:axId val="92129716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,12 +424,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78009749"/>
+        <c:crossAx val="98611368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78009749"/>
+        <c:axId val="98611368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +465,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57032488"/>
+        <c:crossAx val="92129716"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -492,7 +492,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -595,11 +595,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="33851870"/>
-        <c:axId val="24978126"/>
+        <c:axId val="34627444"/>
+        <c:axId val="11993418"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33851870"/>
+        <c:axId val="34627444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,12 +635,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24978126"/>
+        <c:crossAx val="11993418"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24978126"/>
+        <c:axId val="11993418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +676,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33851870"/>
+        <c:crossAx val="34627444"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -776,7 +776,7 @@
   <dimension ref="B1:Q43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42:D43"/>
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -990,8 +990,8 @@
         <v>16</v>
       </c>
       <c r="D20" s="3" t="n">
-        <f aca="false">((1/D21)-D17^2)/F3</f>
-        <v>0.186442462912326</v>
+        <f aca="false">(D17/D21)-D17^2</f>
+        <v>-0.00114843859360879</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -1185,8 +1185,8 @@
         <v>16</v>
       </c>
       <c r="D42" s="3" t="n">
-        <f aca="false">((1/D43)-D39^2)/F25</f>
-        <v>8.18249506215046</v>
+        <f aca="false">((D39/D43)-D39^2)/F24</f>
+        <v>0.000191011928856257</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,7 +1217,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C42:D43 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C42:D43 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Motores/Modelado/Calculos.xlsx
+++ b/Motores/Modelado/Calculos.xlsx
@@ -275,7 +275,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -384,11 +384,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92129716"/>
-        <c:axId val="98611368"/>
+        <c:axId val="22710332"/>
+        <c:axId val="24990759"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92129716"/>
+        <c:axId val="22710332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,12 +424,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98611368"/>
+        <c:crossAx val="24990759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98611368"/>
+        <c:axId val="24990759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +465,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92129716"/>
+        <c:crossAx val="22710332"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -492,7 +492,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -595,11 +595,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34627444"/>
-        <c:axId val="11993418"/>
+        <c:axId val="13410107"/>
+        <c:axId val="58599180"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34627444"/>
+        <c:axId val="13410107"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,12 +635,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11993418"/>
+        <c:crossAx val="58599180"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11993418"/>
+        <c:axId val="58599180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +676,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34627444"/>
+        <c:crossAx val="13410107"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -714,9 +714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>255240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -724,8 +724,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5269320" y="76320"/>
-        <a:ext cx="2840400" cy="2041560"/>
+        <a:off x="5187600" y="76320"/>
+        <a:ext cx="2792160" cy="2041200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -744,9 +744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
+      <xdr:colOff>159120</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -754,8 +754,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5261760" y="4191120"/>
-        <a:ext cx="3332880" cy="2205000"/>
+        <a:off x="5180040" y="4191120"/>
+        <a:ext cx="3275280" cy="2204640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -776,16 +776,16 @@
   <dimension ref="B1:Q43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5"/>
-    <col collapsed="false" hidden="false" max="16" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="16" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,7 +973,9 @@
       <c r="C18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="n">
+        <v>0.000336</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,6 +1172,9 @@
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>0.000286</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,7 +1227,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1248,7 +1253,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Motores/Modelado/Calculos.xlsx
+++ b/Motores/Modelado/Calculos.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="677" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Motores negros" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,84 +22,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
   <si>
-    <t xml:space="preserve">v/b</t>
+    <t>v/b</t>
   </si>
   <si>
-    <t xml:space="preserve">M2</t>
+    <t>M2</t>
   </si>
   <si>
-    <t xml:space="preserve">Trancando el eje del motor</t>
+    <t>Trancando el eje del motor</t>
   </si>
   <si>
-    <t xml:space="preserve">V</t>
+    <t>V</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
+    <t>I</t>
   </si>
   <si>
-    <t xml:space="preserve">Inercia</t>
+    <t>Inercia</t>
   </si>
   <si>
-    <t xml:space="preserve">R</t>
+    <t>R</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
+    <t>b</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin trancar el eje del motor</t>
+    <t>Sin trancar el eje del motor</t>
   </si>
   <si>
-    <t xml:space="preserve">t(m)</t>
+    <t>t(m)</t>
   </si>
   <si>
-    <t xml:space="preserve">N(rev)</t>
+    <t>N(rev)</t>
   </si>
   <si>
-    <t xml:space="preserve">v(rpm)</t>
+    <t>v(rpm)</t>
   </si>
   <si>
-    <t xml:space="preserve">w(rad/s)</t>
+    <t>w(rad/s)</t>
   </si>
   <si>
-    <t xml:space="preserve">fem (V)</t>
+    <t>fem (V)</t>
   </si>
   <si>
-    <t xml:space="preserve">k</t>
+    <t>k</t>
   </si>
   <si>
-    <t xml:space="preserve">L</t>
+    <t>L</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t>B</t>
   </si>
   <si>
-    <t xml:space="preserve">yss</t>
+    <t>yss</t>
   </si>
   <si>
-    <t xml:space="preserve">r/n</t>
+    <t>r/n</t>
   </si>
   <si>
-    <t xml:space="preserve">M1</t>
+    <t>M1</t>
   </si>
   <si>
-    <t xml:space="preserve">I (A)</t>
+    <t>I (A)</t>
   </si>
   <si>
-    <t xml:space="preserve">t(min)</t>
+    <t>t(min)</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>1rad</t>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> rad/s</t>
+    </r>
+  </si>
+  <si>
+    <t>fem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,30 +126,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -149,7 +154,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -157,61 +162,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -270,17 +237,41 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -288,9 +279,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:noFill/>
             </a:ln>
@@ -300,19 +288,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="99CCFF"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9360">
@@ -323,10 +302,11 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -335,7 +315,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88</c:v>
@@ -384,11 +364,19 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22710332"/>
-        <c:axId val="24990759"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196460928"/>
+        <c:axId val="196462464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22710332"/>
+        <c:axId val="196460928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,28 +396,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24990759"/>
+        <c:crossAx val="196462464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24990759"/>
+        <c:axId val="196462464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,29 +439,31 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22710332"/>
+        <c:crossAx val="196460928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -480,24 +472,41 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -505,9 +514,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:noFill/>
             </a:ln>
@@ -517,19 +523,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="99CCFF"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="9360">
@@ -540,10 +537,11 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -564,7 +562,7 @@
                   <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.03</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,18 +586,26 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13410107"/>
-        <c:axId val="58599180"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197023616"/>
+        <c:axId val="197025152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13410107"/>
+        <c:axId val="197023616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,28 +625,30 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58599180"/>
+        <c:crossAx val="197025152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58599180"/>
+        <c:axId val="197025152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,29 +668,31 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13410107"/>
+        <c:crossAx val="197023616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -691,20 +701,944 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9360">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Motores negros'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Motores negros'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196911104"/>
+        <c:axId val="196912640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196911104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196912640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196912640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196911104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9360">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Motores negros'!$D$24:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Motores negros'!$C$24:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197404160"/>
+        <c:axId val="197405696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="197404160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197405696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="197405696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197404160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9360">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197481600"/>
+        <c:axId val="197483136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="197481600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197483136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="197483136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197481600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9360">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$31:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$31:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197510656"/>
+        <c:axId val="197512192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="197510656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197512192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="197512192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197510656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -718,14 +1652,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5187600" y="76320"/>
-        <a:ext cx="2792160" cy="2041200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -748,14 +1682,14 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5180040" y="4191120"/>
-        <a:ext cx="3275280" cy="2204640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -768,500 +1702,2158 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>255240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>159120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>255240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>159120</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="16" min="5" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.10204081632653"/>
+    <col min="1" max="3" width="8.109375"/>
+    <col min="4" max="4" width="12.33203125"/>
+    <col min="5" max="16" width="8.109375"/>
+    <col min="17" max="17" width="8.5546875"/>
+    <col min="18" max="1025" width="8.109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="n">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.58</v>
+      <c r="D3">
+        <v>0.57999999999999996</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <f aca="false" t="array" ref="F3:G6">LINEST(C3:C8,D3:D8,0,1)</f>
-        <v>1.08650979861722</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="2">
+        <f t="array" ref="F3:G6">LINEST(C3:C8,D3:D8,0,1)</f>
+        <v>1.0865097986172167</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="3" t="n">
-        <v>1.93082E-005</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="n">
+      <c r="Q3" s="3">
+        <v>1.9308199999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>0.88</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0.0246170446122932</v>
-      </c>
-      <c r="G4" s="0" t="str">
+      <c r="F4" s="4">
+        <v>2.4617044612293214E-2</v>
+      </c>
+      <c r="G4" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="n">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C5">
         <v>1.5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>1.37</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>0.997439874466838</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.107928546621763</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
+      <c r="F5">
+        <v>0.99743987446683824</v>
+      </c>
+      <c r="G5">
+        <v>0.10792854662176306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>1.9</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>1948.0292304944</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6">
+        <v>1948.029230494396</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C7">
         <v>2.5</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>2.62</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <f aca="false">D13/D12</f>
+      <c r="D14" s="4">
+        <f>D13/D12</f>
         <v>26</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>2.7227</v>
+      <c r="D15">
+        <v>2.7227000000000001</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <f aca="false">C11-F3*D11</f>
-        <v>0.793563138262729</v>
+      <c r="D16" s="4">
+        <f>C11-F3*D11</f>
+        <v>0.79356313826272884</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <f aca="false">D16/D15</f>
-        <v>0.291461835039751</v>
+      <c r="D17" s="4">
+        <f>D16/D15</f>
+        <v>0.29146183503975054</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>0.000336</v>
+      <c r="D18" s="4">
+        <v>3.3599999999999998E-4</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>1.93082E-005</v>
+      <c r="D19" s="3">
+        <v>1.9308199999999999E-5</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="n">
-        <f aca="false">(D17/D21)-D17^2</f>
-        <v>-0.00114843859360879</v>
+      <c r="D20" s="3">
+        <f>(D17/D21)-D17^2</f>
+        <v>-1.14843859360865E-3</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="n">
-        <v>3.478</v>
+      <c r="D21" s="3">
+        <v>3.4780000000000002</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C24">
         <v>0.5</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>0.35</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <f aca="false" t="array" ref="F24:G27">LINEST(C24:C28,D24:D28,0,1)</f>
-        <v>1.11337030811197</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24" s="2">
+        <f t="array" ref="F24:G27">LINEST(C24:C28,D24:D28,0,1)</f>
+        <v>1.1133703081119717</v>
+      </c>
+      <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>0.83</v>
       </c>
-      <c r="F25" s="4" t="n">
-        <v>0.0250875554057343</v>
-      </c>
-      <c r="G25" s="0" t="str">
+      <c r="F25" s="4">
+        <v>2.508755540573445E-2</v>
+      </c>
+      <c r="G25" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26">
         <v>1.5</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>1.3</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>0.997973174880593</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>0.0790743668540678</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
+      <c r="F26">
+        <v>0.99797317488059256</v>
+      </c>
+      <c r="G26">
+        <v>7.9074366854068198E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>1.82</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>1969.52991222528</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="F27">
+        <v>1969.5299122252629</v>
+      </c>
+      <c r="G27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D28">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <f aca="false">D35/D34</f>
+      <c r="D36" s="4">
+        <f>D35/D34</f>
         <v>27</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="4">
         <v>2.827</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <f aca="false">ABS(C32-F24*D32)</f>
-        <v>0.810727047620965</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+      <c r="D38" s="4">
+        <f>ABS(C32-F24*D32)</f>
+        <v>0.81072704762096481</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <f aca="false">D38/D37</f>
-        <v>0.286779995621141</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
+      <c r="D39" s="4">
+        <f>D38/D37</f>
+        <v>0.2867799956211407</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="3" t="n">
-        <v>0.000286</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+      <c r="D40" s="3">
+        <v>2.8600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="3" t="n">
-        <v>1.93082E-005</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
+      <c r="D41" s="3">
+        <v>1.9308199999999999E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="3" t="n">
-        <f aca="false">((D39/D43)-D39^2)/F24</f>
-        <v>0.000191011928856257</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
+      <c r="D42" s="3">
+        <f>((D39/D43)-D39^2)/F24</f>
+        <v>1.9101192885635684E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="3" t="n">
-        <v>3.478</v>
+      <c r="D43" s="3">
+        <v>3.4780000000000002</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col min="1" max="1025" width="8.109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9996" topLeftCell="C1" activePane="topRight"/>
+      <selection activeCell="I27" sqref="I27"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col min="19" max="19" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.35</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="array" ref="H3:I6">LINEST(C3:C7,D3:D7,0,1)</f>
+        <v>2.5672153124301786</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1.9308199999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.43</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.2271733859599451E-2</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>0.9999086081295846</v>
+      </c>
+      <c r="I5">
+        <v>1.4219863335985737E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>43763.569060772941</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1.7</v>
+      </c>
+      <c r="D7">
+        <v>0.67</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="5">
+        <v>9.5492965964253997</v>
+      </c>
+      <c r="T9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D13/D12</f>
+        <v>26</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>2.7227000000000001</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C11-H3*D11</f>
+        <v>0.51222909063826605</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4">
+        <f>D16/D15</f>
+        <v>0.18813276917701768</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.9308199999999999E-5</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <f>(D17/D21)-D17^2</f>
+        <v>1.8698289217283733E-2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0.9</v>
+      </c>
+      <c r="D24">
+        <v>0.33</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="array" ref="H24:I27">LINEST(C24:C28,D24:D28,0,1)</f>
+        <v>2.4382341028756582</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.42</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4">
+        <v>8.5283400928495567E-2</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1.3</v>
+      </c>
+      <c r="D26">
+        <v>0.52</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>0.99513012198721773</v>
+      </c>
+      <c r="I26">
+        <v>0.10380079529213959</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+      <c r="D27">
+        <v>0.59</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="H27">
+        <v>817.3758105441226</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1.7</v>
+      </c>
+      <c r="D28">
+        <v>0.76</v>
+      </c>
+      <c r="E28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4">
+        <f>D35/D34</f>
+        <v>27</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2.827</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4">
+        <f>ABS(C32-H24*D32)</f>
+        <v>0.58550020251113799</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="4">
+        <f>D38/D37</f>
+        <v>0.20711008224659994</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.8600000000000001E-4</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.9308199999999999E-5</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3">
+        <f>((D39/D43)-D39^2)/H24</f>
+        <v>6.8303648957135383E-3</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="8.109375"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="6" width="8.109375"/>
+    <col min="8" max="1026" width="8.109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.35</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3/$T$9</f>
+        <v>1.2566370599999979</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="array" ref="I3:J6">LINEST(C3:C7,D3:D7,0,1)</f>
+        <v>2.5067500355265029</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1.9308199999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.43</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F7" si="0">E4/$T$9</f>
+        <v>1.4660765699999974</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4">
+        <v>3.3148340330906301E-2</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1991148549999964</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="I5">
+        <v>0.99930103111158219</v>
+      </c>
+      <c r="J5">
+        <v>3.9325165805429954E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9321531399999947</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="I6">
+        <v>5718.7153687112304</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1.7</v>
+      </c>
+      <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1887901999999926</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="5">
+        <v>9.5492965964253997</v>
+      </c>
+      <c r="U9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <v>0.18</v>
+      </c>
+      <c r="E11">
+        <f>C11-D11*$I$3</f>
+        <v>0.4487849936052295</v>
+      </c>
+      <c r="F11">
+        <f>E11/F3</f>
+        <v>0.35713175099676775</v>
+      </c>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E15" si="1">C12-D12*$I$3</f>
+        <v>0.59864999289469945</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F15" si="2">E12/F4</f>
+        <v>0.40833473854281738</v>
+      </c>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1.3</v>
+      </c>
+      <c r="D13">
+        <v>0.22</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.74851499218416939</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.34037103177322253</v>
+      </c>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14">
+        <v>0.26</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.84824499076310922</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.28929082154389479</v>
+      </c>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1.7</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.0733124911183742</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.25623448295843898</v>
+      </c>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <f>SUM(F11:F15)/5</f>
+        <v>0.33027256516302828</v>
+      </c>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4">
+        <f>D20/D19</f>
+        <v>26</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>2.7227000000000001</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4">
+        <f>C18-I3*D18</f>
+        <v>0.52371749324996442</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4">
+        <f>D23/D22</f>
+        <v>0.19235225814447585</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.9308199999999999E-5</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3">
+        <f>(D24/D28)-D24^2</f>
+        <v>1.8306030909916969E-2</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>0.9</v>
+      </c>
+      <c r="D31">
+        <v>0.33</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4">
+        <f>E31/$T$9</f>
+        <v>1.6755160799999971</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="array" ref="I31:J34">LINEST(C31:C35,D31:D35,0,1)</f>
+        <v>2.4382341028756582</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.42</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ref="F32:F35" si="3">E32/$T$9</f>
+        <v>2.1991148549999964</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="I32" s="4">
+        <v>8.5283400928495567E-2</v>
+      </c>
+      <c r="J32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1.3</v>
+      </c>
+      <c r="D33">
+        <v>0.52</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9321531399999947</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="I33">
+        <v>0.99513012198721773</v>
+      </c>
+      <c r="J33">
+        <v>0.10380079529213959</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34">
+        <v>0.59</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2463124049999945</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="I34">
+        <v>817.3758105441226</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>1.7</v>
+      </c>
+      <c r="D35">
+        <v>0.76</v>
+      </c>
+      <c r="E35">
+        <v>41</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2935099549999922</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>0.9</v>
+      </c>
+      <c r="D39">
+        <v>0.17</v>
+      </c>
+      <c r="E39">
+        <f>C39-D39*$I$31</f>
+        <v>0.48550020251113807</v>
+      </c>
+      <c r="F39">
+        <f>E39/F31</f>
+        <v>0.2897615894627158</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.19</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E43" si="4">C40-D40*$I$31</f>
+        <v>0.63673552045362503</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F43" si="5">E40/F32</f>
+        <v>0.28954173039480746</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>1.3</v>
+      </c>
+      <c r="D41">
+        <v>0.21</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0.78797083839611182</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>0.26873454447065925</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>1.5</v>
+      </c>
+      <c r="D42">
+        <v>0.25</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>0.89044147428108544</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>0.27429321740865753</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>1.7</v>
+      </c>
+      <c r="D43">
+        <v>0.24</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>1.114823815309842</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>0.25965325036956716</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <f>SUM(F39:F43)/5</f>
+        <v>0.27639686642128142</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4">
+        <f>D49/D48</f>
+        <v>27</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2.827</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="4">
+        <f>ABS(C46-I31*D46)</f>
+        <v>0.58550020251113799</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="4">
+        <f>D52/D51</f>
+        <v>0.20711008224659994</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2.8600000000000001E-4</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.9308199999999999E-5</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="3">
+        <f>((D53/D57)-D53^2)/I31</f>
+        <v>6.8303648957135383E-3</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>